--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +429,685 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>isin</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>symbol_finanzen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>buy_date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>price_buy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cur</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>exr_hist</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>price_buy_eur</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cur_date</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>price_cur</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>cur2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>exr_cur</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>price_cur_eur</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>value_org</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>value_eur</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>stop_loss_eur</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>rendite_org</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>rendite_eur</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>lev_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>US98459U1034</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>YALA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>YALA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>YALLA GROUP SP.ADS/1 CL.A</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45778.54484212223</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1.1336583</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6.765707091810645</v>
+      </c>
+      <c r="K2" t="n">
+        <v>221</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>45778.54484212223</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1.1336583</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6.765707091810645</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1695.07</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1495.221267290153</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.750851028039048</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PLMURPL00190</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MUR.WA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MURAPOL S.A.        ZY 40</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45778.54484212223</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>4.28338</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.513515027851836</v>
+      </c>
+      <c r="K3" t="n">
+        <v>157</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>45778.54484212223</v>
+      </c>
+      <c r="M3" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>4.28338</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9.513515027851836</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6397.75</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1493.621859372738</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8.08648777367406</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>10.667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SE0000120669</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SSAB-B.ST</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SSABF</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SSAB AB -B- FRIA</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45778.54484212223</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SEK</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>10.9984</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.460794297352343</v>
+      </c>
+      <c r="K4" t="n">
+        <v>274</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>45778.54484212223</v>
+      </c>
+      <c r="M4" t="n">
+        <v>60.06</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>SEK</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>10.9984</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.460794297352343</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>16456.44</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1496.257637474542</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.641675152749491</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PTSEM0AM0004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SEM.LS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SEMAPA SGPS NAM.     O.N.</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45778.54484212223</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="K5" t="n">
+        <v>90</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>45778.54484212223</v>
+      </c>
+      <c r="M5" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1484.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1484.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>14.0165</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BE0003820371</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EVS.BR</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EVS BROADCAST EQUIPMNT SA</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45778.54484212223</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>45778.54484212223</v>
+      </c>
+      <c r="M6" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1470</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1470</v>
+      </c>
+      <c r="S6" t="n">
+        <v>31.2375</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AU000000ALK9</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ALK.AX</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ALKEF</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ALKANE RESOURCES LTD.</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45778.54484212223</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1.77212</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.4401507798568946</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3407</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>45778.54484212223</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>1.77212</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.4401507798568946</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2657.46</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1499.59370697244</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.3741281628783604</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IT0005144784</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GF.MI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GENERALFINANCE SPA</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45778.54484212223</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>71</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>45778.54484212223</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1050.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1050.8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45778.54484212223</v>
+        <v>45778.54484211806</v>
       </c>
       <c r="G2" t="n">
         <v>7.67</v>
@@ -596,7 +596,7 @@
         <v>221</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>45778.54484212223</v>
+        <v>45778.54484211806</v>
       </c>
       <c r="M2" t="n">
         <v>7.67</v>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45778.54484212223</v>
+        <v>45778.54484211806</v>
       </c>
       <c r="G3" t="n">
         <v>40.75</v>
@@ -674,7 +674,7 @@
         <v>157</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>45778.54484212223</v>
+        <v>45778.54484211806</v>
       </c>
       <c r="M3" t="n">
         <v>40.75</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45778.54484212223</v>
+        <v>45778.54484211806</v>
       </c>
       <c r="G4" t="n">
         <v>60.06</v>
@@ -756,7 +756,7 @@
         <v>274</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>45778.54484212223</v>
+        <v>45778.54484211806</v>
       </c>
       <c r="M4" t="n">
         <v>60.06</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45778.54484212223</v>
+        <v>45778.54484211806</v>
       </c>
       <c r="G5" t="n">
         <v>16.49</v>
@@ -834,7 +834,7 @@
         <v>90</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>45778.54484212223</v>
+        <v>45778.54484211806</v>
       </c>
       <c r="M5" t="n">
         <v>16.49</v>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45778.54484212223</v>
+        <v>45778.54484211806</v>
       </c>
       <c r="G6" t="n">
         <v>36.75</v>
@@ -912,7 +912,7 @@
         <v>40</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>45778.54484212223</v>
+        <v>45778.54484211806</v>
       </c>
       <c r="M6" t="n">
         <v>36.75</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45778.54484212223</v>
+        <v>45778.54484211806</v>
       </c>
       <c r="G7" t="n">
         <v>0.78</v>
@@ -994,7 +994,7 @@
         <v>3407</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>45778.54484212223</v>
+        <v>45778.54484211806</v>
       </c>
       <c r="M7" t="n">
         <v>0.78</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45778.54484212223</v>
+        <v>45778.54484211806</v>
       </c>
       <c r="G8" t="n">
         <v>14.8</v>
@@ -1072,7 +1072,7 @@
         <v>71</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>45778.54484212223</v>
+        <v>45778.54484211806</v>
       </c>
       <c r="M8" t="n">
         <v>14.8</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45778.53641591233</v>
+        <v>45778.53641591435</v>
       </c>
       <c r="G2" t="n">
         <v>7.67</v>
@@ -596,7 +596,7 @@
         <v>221</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>45778.53641591233</v>
+        <v>45778.53641591435</v>
       </c>
       <c r="M2" t="n">
         <v>7.67</v>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45778.53641591233</v>
+        <v>45778.53641591435</v>
       </c>
       <c r="G3" t="n">
         <v>40.75</v>
@@ -674,7 +674,7 @@
         <v>157</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>45778.53641591233</v>
+        <v>45778.53641591435</v>
       </c>
       <c r="M3" t="n">
         <v>40.75</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45778.53641591233</v>
+        <v>45778.53641591435</v>
       </c>
       <c r="G4" t="n">
         <v>60.06</v>
@@ -756,7 +756,7 @@
         <v>274</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>45778.53641591233</v>
+        <v>45778.53641591435</v>
       </c>
       <c r="M4" t="n">
         <v>60.06</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45778.53641591233</v>
+        <v>45778.53641591435</v>
       </c>
       <c r="G5" t="n">
         <v>16.49</v>
@@ -834,7 +834,7 @@
         <v>90</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>45778.53641591233</v>
+        <v>45778.53641591435</v>
       </c>
       <c r="M5" t="n">
         <v>16.49</v>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45778.53641591233</v>
+        <v>45778.53641591435</v>
       </c>
       <c r="G6" t="n">
         <v>36.75</v>
@@ -912,7 +912,7 @@
         <v>40</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>45778.53641591233</v>
+        <v>45778.53641591435</v>
       </c>
       <c r="M6" t="n">
         <v>36.75</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45778.53641591233</v>
+        <v>45778.53641591435</v>
       </c>
       <c r="G7" t="n">
         <v>0.78</v>
@@ -994,7 +994,7 @@
         <v>3406</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>45778.53641591233</v>
+        <v>45778.53641591435</v>
       </c>
       <c r="M7" t="n">
         <v>0.78</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45778.53641591233</v>
+        <v>45778.53641591435</v>
       </c>
       <c r="G8" t="n">
         <v>14.8</v>
@@ -1072,7 +1072,7 @@
         <v>71</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>45778.53641591233</v>
+        <v>45778.53641591435</v>
       </c>
       <c r="M8" t="n">
         <v>14.8</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45779.89600281289</v>
+        <v>45779.8960028125</v>
       </c>
       <c r="G2" t="n">
         <v>7.13</v>
@@ -606,7 +606,7 @@
         <v>237</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>45779.89600281289</v>
+        <v>45779.8960028125</v>
       </c>
       <c r="M2" t="n">
         <v>7.13</v>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45779.89600281289</v>
+        <v>45779.8960028125</v>
       </c>
       <c r="G3" t="n">
         <v>41</v>
@@ -690,7 +690,7 @@
         <v>155</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>45779.89600281289</v>
+        <v>45779.8960028125</v>
       </c>
       <c r="M3" t="n">
         <v>41</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45779.89600281289</v>
+        <v>45779.8960028125</v>
       </c>
       <c r="G4" t="n">
         <v>62.94</v>
@@ -778,7 +778,7 @@
         <v>259</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>45779.89600281289</v>
+        <v>45779.8960028125</v>
       </c>
       <c r="M4" t="n">
         <v>62.94</v>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45779.89600281289</v>
+        <v>45779.8960028125</v>
       </c>
       <c r="G5" t="n">
         <v>17.204</v>
@@ -862,7 +862,7 @@
         <v>87</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>45779.89600281289</v>
+        <v>45779.8960028125</v>
       </c>
       <c r="M5" t="n">
         <v>17.204</v>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45779.89600281289</v>
+        <v>45779.8960028125</v>
       </c>
       <c r="G6" t="n">
         <v>37.65</v>
@@ -946,7 +946,7 @@
         <v>39</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>45779.89600281289</v>
+        <v>45779.8960028125</v>
       </c>
       <c r="M6" t="n">
         <v>37.65</v>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45779.89600281289</v>
+        <v>45779.8960028125</v>
       </c>
       <c r="G7" t="n">
         <v>0.795</v>
@@ -1034,7 +1034,7 @@
         <v>3300</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>45779.89600281289</v>
+        <v>45779.8960028125</v>
       </c>
       <c r="M7" t="n">
         <v>0.795</v>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45779.89600281289</v>
+        <v>45779.8960028125</v>
       </c>
       <c r="G8" t="n">
         <v>14.95</v>
@@ -1118,7 +1118,7 @@
         <v>69</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>45779.89600281289</v>
+        <v>45779.8960028125</v>
       </c>
       <c r="M8" t="n">
         <v>14.95</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -1247,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>45786.73075286991</v>
+        <v>45786.73075287037</v>
       </c>
       <c r="N9" t="n">
         <v>58.82</v>
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45786.73075286991</v>
+        <v>45786.73075287037</v>
       </c>
       <c r="G10" t="n">
         <v>28407</v>
@@ -1341,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>45786.73075286991</v>
+        <v>45786.73075287037</v>
       </c>
       <c r="N10" t="n">
         <v>28407</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1383,6 +1383,192 @@
       </c>
       <c r="Z10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AU000000ALK9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ALK.AX</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALKEF</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ALKANE RESOURCES LTD.</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45779.8960028125</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1.75271</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.453583308134261</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3300</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>45792.36033070886</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>1.74482</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.4069187652594536</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2343</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1342.831925356197</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.4070896403897458</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.1069182389937108</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.1028797621913246</v>
+      </c>
+      <c r="W11" t="n">
+        <v>10</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-25.16737052029859</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>US4132163001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>HMY</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>HMY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HARMONY GD MNG ADRRC,-50</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45792.36033070886</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1.1208249</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12.61570830555246</v>
+      </c>
+      <c r="K12" t="n">
+        <v>107</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>45792.36033070886</v>
+      </c>
+      <c r="N12" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>1.1208249</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>12.61570830555246</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1512.98</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1349.880788694113</v>
+      </c>
+      <c r="T12" t="n">
+        <v>11.35413747499721</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-63.66561839201467</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -1433,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>45792.36033070886</v>
+        <v>45792.36033070602</v>
       </c>
       <c r="N11" t="n">
         <v>0.71</v>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45792.36033070886</v>
+        <v>45792.36033070602</v>
       </c>
       <c r="G12" t="n">
         <v>14.14</v>
@@ -1527,7 +1527,7 @@
         <v>11</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>45792.36033070886</v>
+        <v>45792.36033070602</v>
       </c>
       <c r="N12" t="n">
         <v>14.14</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1569,6 +1569,188 @@
       </c>
       <c r="Z12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BE0003820371</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>EVS.BR</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>EVS BROADCAST EQUIPMNT SA</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45779.8960028125</v>
+      </c>
+      <c r="G13" t="n">
+        <v>37.65</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>37.65</v>
+      </c>
+      <c r="K13" t="n">
+        <v>39</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>45796.31262435768</v>
+      </c>
+      <c r="N13" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1366.95</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1366.95</v>
+      </c>
+      <c r="T13" t="n">
+        <v>35.05500000000001</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.06905710491367867</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.06905710491367867</v>
+      </c>
+      <c r="W13" t="n">
+        <v>10</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-63.66561839201467</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GB00BBHXD542</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GMR.L</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PSDMF</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GAMING REALMS PLC LS-,001</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45796.31262435768</v>
+      </c>
+      <c r="G14" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.84089</v>
+      </c>
+      <c r="J14" t="n">
+        <v>55.06070948637753</v>
+      </c>
+      <c r="K14" t="n">
+        <v>24</v>
+      </c>
+      <c r="L14" t="n">
+        <v>11</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>45796.31262435768</v>
+      </c>
+      <c r="N14" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>0.84089</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>55.06070948637753</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1111.2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1321.457027673061</v>
+      </c>
+      <c r="T14" t="n">
+        <v>49.55463853773978</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>11</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-89.01561839201469</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -1615,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>45796.31262435768</v>
+        <v>45796.31262436343</v>
       </c>
       <c r="N13" t="n">
         <v>35.05</v>
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45796.31262435768</v>
+        <v>45796.31262436343</v>
       </c>
       <c r="G14" t="n">
         <v>46.3</v>
@@ -1709,7 +1709,7 @@
         <v>11</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>45796.31262435768</v>
+        <v>45796.31262436343</v>
       </c>
       <c r="N14" t="n">
         <v>46.3</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,6 +1751,184 @@
       </c>
       <c r="Z14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PLMURPL00190</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MUR.WA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MURAPOL S.A.        ZY 40</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45779.8960028125</v>
+      </c>
+      <c r="G15" t="n">
+        <v>41</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>4.2694</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9.60322293530707</v>
+      </c>
+      <c r="K15" t="n">
+        <v>155</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10.667</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>45799.64783245809</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>4.25055</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>9.175283198644882</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6045</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1422.168895789957</v>
+      </c>
+      <c r="T15" t="n">
+        <v>9.363937961546375</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.04878048780487809</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.04456209540745215</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10.667</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-89.01561839201469</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PTALT0AE0002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ALTR.LS</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ALTRI SGPS NAM.   EO-,125</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>45799.64783245809</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="K16" t="n">
+        <v>235</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>45799.64783245809</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1454.65</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1454.65</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5.571000000000001</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>11</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-105.5982831876745</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -1797,7 +1797,7 @@
         <v>10.667</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>45799.64783245809</v>
+        <v>45799.6478324537</v>
       </c>
       <c r="N15" t="n">
         <v>39</v>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45799.64783245809</v>
+        <v>45799.6478324537</v>
       </c>
       <c r="G16" t="n">
         <v>6.19</v>
@@ -1887,7 +1887,7 @@
         <v>11</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>45799.64783245809</v>
+        <v>45799.6478324537</v>
       </c>
       <c r="N16" t="n">
         <v>6.19</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1929,6 +1929,188 @@
       </c>
       <c r="Z16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>US98459U1034</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>YALA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>YALA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>YALLA GROUP SP.ADS/1 CL.A</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45779.8960028125</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1.1303266</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.30791135942479</v>
+      </c>
+      <c r="K17" t="n">
+        <v>237</v>
+      </c>
+      <c r="L17" t="n">
+        <v>11</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>45800.80877047611</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.195</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>1.136622</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>6.330160774646276</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1705.215</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1500.248103591168</v>
+      </c>
+      <c r="T17" t="n">
+        <v>6.343084678212774</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.00911640953716697</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.003527223823182712</v>
+      </c>
+      <c r="W17" t="n">
+        <v>10</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-105.5982831876745</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PLMURPL00190</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MUR.WA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MURAPOL S.A.        ZY 40</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45800.80877047611</v>
+      </c>
+      <c r="G18" t="n">
+        <v>39.45</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>4.25708</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.266915350427993</v>
+      </c>
+      <c r="K18" t="n">
+        <v>161</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10.667</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>45800.80877047611</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39.45</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>4.25708</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>9.266915350427993</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6351.450000000001</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1491.973371418907</v>
+      </c>
+      <c r="T18" t="n">
+        <v>8.340223815385194</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>10.667</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-104.2800053358014</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -1979,7 +1979,7 @@
         <v>11</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>45800.80877047611</v>
+        <v>45800.80877047453</v>
       </c>
       <c r="N17" t="n">
         <v>7.195</v>
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45800.80877047611</v>
+        <v>45800.80877047453</v>
       </c>
       <c r="G18" t="n">
         <v>39.45</v>
@@ -2069,7 +2069,7 @@
         <v>10.667</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>45800.80877047611</v>
+        <v>45800.80877047453</v>
       </c>
       <c r="N18" t="n">
         <v>39.45</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2111,6 +2111,184 @@
       </c>
       <c r="Z18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PTALT0AE0002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ALTR.LS</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ALTRI SGPS NAM.   EO-,125</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45799.6478324537</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="K19" t="n">
+        <v>235</v>
+      </c>
+      <c r="L19" t="n">
+        <v>11</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>45803.37602041871</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1311.3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1311.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5.589</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-0.09854604200323103</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-0.09854604200323103</v>
+      </c>
+      <c r="W19" t="n">
+        <v>11</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-104.2800053358014</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DE0005492938</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MZX.DE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MASTERFLEX O.N.</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45803.37602041871</v>
+      </c>
+      <c r="G20" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>118</v>
+      </c>
+      <c r="L20" t="n">
+        <v>12</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>45803.37602041871</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1303.9</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1303.9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>9.945</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>12</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-140.1175053358014</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -2157,7 +2157,7 @@
         <v>11</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>45803.37602041871</v>
+        <v>45803.37602041667</v>
       </c>
       <c r="N19" t="n">
         <v>5.58</v>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45803.37602041871</v>
+        <v>45803.37602041667</v>
       </c>
       <c r="G20" t="n">
         <v>11.05</v>
@@ -2247,7 +2247,7 @@
         <v>12</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>45803.37602041871</v>
+        <v>45803.37602041667</v>
       </c>
       <c r="N20" t="n">
         <v>11.05</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2289,6 +2289,188 @@
       </c>
       <c r="Z20" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PTSEM0AM0004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SEM.LS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SEMAPA SGPS NAM.     O.N.</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45779.8960028125</v>
+      </c>
+      <c r="G21" t="n">
+        <v>17.204</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>17.204</v>
+      </c>
+      <c r="K21" t="n">
+        <v>87</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>45804.31244514423</v>
+      </c>
+      <c r="N21" t="n">
+        <v>18</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>18</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1566</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1566</v>
+      </c>
+      <c r="T21" t="n">
+        <v>16.614</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.04626830969541973</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.04626830969541973</v>
+      </c>
+      <c r="W21" t="n">
+        <v>8</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-140.1175053358014</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CA85913R2063</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>STGO.TO</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STPGF</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>STEPPE GOLD LTD.</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45804.31244514423</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1.56053</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5959513754942232</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2511</v>
+      </c>
+      <c r="L22" t="n">
+        <v>11.667</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>45804.31244514423</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>1.56053</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.5959513754942232</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2335.23</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1496.433903865994</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.5363562379448009</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>11.667</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-122.8045053358014</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -2335,7 +2335,7 @@
         <v>10</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>45804.31244514423</v>
+        <v>45804.31244513889</v>
       </c>
       <c r="N21" t="n">
         <v>18</v>
@@ -2406,7 +2406,7 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45804.31244514423</v>
+        <v>45804.31244513889</v>
       </c>
       <c r="G22" t="n">
         <v>0.93</v>
@@ -2429,7 +2429,7 @@
         <v>11.667</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>45804.31244514423</v>
+        <v>45804.31244513889</v>
       </c>
       <c r="N22" t="n">
         <v>0.93</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2471,6 +2471,188 @@
       </c>
       <c r="Z22" t="inlineStr"/>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>US4132163001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>HMY</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>HMY</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HARMONY GD MNG ADRRC,-50</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45792.36033070602</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1.1208249</v>
+      </c>
+      <c r="J23" t="n">
+        <v>12.61570830555246</v>
+      </c>
+      <c r="K23" t="n">
+        <v>107</v>
+      </c>
+      <c r="L23" t="n">
+        <v>11</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>45807.56954455269</v>
+      </c>
+      <c r="N23" t="n">
+        <v>14.265</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>1.1337868</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>12.58173053346538</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1526.355</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1346.245167080795</v>
+      </c>
+      <c r="T23" t="n">
+        <v>12.62338863982162</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.008840169731258785</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.002693290877066823</v>
+      </c>
+      <c r="W23" t="n">
+        <v>10</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-122.8045053358014</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GRS497003012</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PREMIA.AT</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>PREMIA REAL ESTATE EO 0,5</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45807.56954455269</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1075</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10.667</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>45807.56954455269</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1408.25</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1408.25</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.179</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>10.667</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-123.7134107391309</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z24" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -2521,7 +2521,7 @@
         <v>11</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>45807.56954455269</v>
+        <v>45807.56954454861</v>
       </c>
       <c r="N23" t="n">
         <v>14.265</v>
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45807.56954455269</v>
+        <v>45807.56954454861</v>
       </c>
       <c r="G24" t="n">
         <v>1.31</v>
@@ -2611,7 +2611,7 @@
         <v>10.667</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>45807.56954455269</v>
+        <v>45807.56954454861</v>
       </c>
       <c r="N24" t="n">
         <v>1.31</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2653,6 +2653,560 @@
       </c>
       <c r="Z24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IT0005144784</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>GF.MI</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>GENERALFINANCE SPA</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45779.8960028125</v>
+      </c>
+      <c r="G25" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="K25" t="n">
+        <v>69</v>
+      </c>
+      <c r="L25" t="n">
+        <v>10</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>45819.31244493553</v>
+      </c>
+      <c r="N25" t="n">
+        <v>15</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>15</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1035</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1035</v>
+      </c>
+      <c r="T25" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.003344481605351168</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.003344481605351168</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-123.7134107391309</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ZAE000015228</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>HAR.JO</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>HGMCF</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>HARMONY GOLD MNG   RC-,50</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45786.73075287037</v>
+      </c>
+      <c r="G26" t="n">
+        <v>28407</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ZAc</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>2055.91</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13.8172390814773</v>
+      </c>
+      <c r="K26" t="n">
+        <v>100</v>
+      </c>
+      <c r="L26" t="n">
+        <v>10</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>45819.31244493553</v>
+      </c>
+      <c r="N26" t="n">
+        <v>25724</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>ZAc</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>2019.17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>12.7398881718726</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2572400</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1273.98881718726</v>
+      </c>
+      <c r="T26" t="n">
+        <v>12.76814155806431</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-0.09444855141338404</v>
+      </c>
+      <c r="V26" t="n">
+        <v>-0.07797150380418227</v>
+      </c>
+      <c r="W26" t="n">
+        <v>9</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-123.7134107391309</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CA85913R2063</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>STGO.TO</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>STPGF</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>STEPPE GOLD LTD.</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45804.31244513889</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1.56053</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5959513754942232</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2511</v>
+      </c>
+      <c r="L27" t="n">
+        <v>11.667</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>45819.31244493553</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>1.56095</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.9032960697011434</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3540.51</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2268.176431019571</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.8546460148600613</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.5161290322580643</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.5157210920975539</v>
+      </c>
+      <c r="W27" t="n">
+        <v>8.667</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-123.7134107391309</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>43.1509483091458</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>US38059T1060</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GFI</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GFI</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>GOLD FIELDS ADR/1 RC-,50</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45819.31244493553</v>
+      </c>
+      <c r="G28" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1.1416829</v>
+      </c>
+      <c r="J28" t="n">
+        <v>21.21429689452299</v>
+      </c>
+      <c r="K28" t="n">
+        <v>70</v>
+      </c>
+      <c r="L28" t="n">
+        <v>11</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>45819.31244493553</v>
+      </c>
+      <c r="N28" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>1.1416829</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>21.21429689452299</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1695.4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1485.000782616609</v>
+      </c>
+      <c r="T28" t="n">
+        <v>19.09286720507069</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>11</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PAP310761054</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>COPA HOLDINGS CL.A O.N.</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45819.31244493553</v>
+      </c>
+      <c r="G29" t="n">
+        <v>107.42</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1.1416829</v>
+      </c>
+      <c r="J29" t="n">
+        <v>94.0891730970132</v>
+      </c>
+      <c r="K29" t="n">
+        <v>15</v>
+      </c>
+      <c r="L29" t="n">
+        <v>10</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>45819.31244493553</v>
+      </c>
+      <c r="N29" t="n">
+        <v>107.42</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>1.1416829</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>94.0891730970132</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1611.3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1411.337596455198</v>
+      </c>
+      <c r="T29" t="n">
+        <v>84.68025578731188</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>10</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AU000000ALK9</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ALK.AX</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ALKEF</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ALKANE RESOURCES LTD.</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45819.31244493553</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1.75234</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4251458050378351</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3521</v>
+      </c>
+      <c r="L30" t="n">
+        <v>10</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>45819.31244493553</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>1.75234</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.4251458050378351</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2623.145</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1496.938379538218</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.3826312245340516</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>10</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z30" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -2699,7 +2699,7 @@
         <v>10</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>45819.31244493553</v>
+        <v>45819.31244493055</v>
       </c>
       <c r="N25" t="n">
         <v>15</v>
@@ -2793,7 +2793,7 @@
         <v>10</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>45819.31244493553</v>
+        <v>45819.31244493055</v>
       </c>
       <c r="N26" t="n">
         <v>25724</v>
@@ -2887,7 +2887,7 @@
         <v>11.667</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>45819.31244493553</v>
+        <v>45819.31244493055</v>
       </c>
       <c r="N27" t="n">
         <v>1.41</v>
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45819.31244493553</v>
+        <v>45819.31244493055</v>
       </c>
       <c r="G28" t="n">
         <v>24.22</v>
@@ -2981,7 +2981,7 @@
         <v>11</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>45819.31244493553</v>
+        <v>45819.31244493055</v>
       </c>
       <c r="N28" t="n">
         <v>24.22</v>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45819.31244493553</v>
+        <v>45819.31244493055</v>
       </c>
       <c r="G29" t="n">
         <v>107.42</v>
@@ -3073,7 +3073,7 @@
         <v>10</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>45819.31244493553</v>
+        <v>45819.31244493055</v>
       </c>
       <c r="N29" t="n">
         <v>107.42</v>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45819.31244493553</v>
+        <v>45819.31244493055</v>
       </c>
       <c r="G30" t="n">
         <v>0.745</v>
@@ -3165,7 +3165,7 @@
         <v>10</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>45819.31244493553</v>
+        <v>45819.31244493055</v>
       </c>
       <c r="N30" t="n">
         <v>0.745</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3207,6 +3207,464 @@
       </c>
       <c r="Z30" t="inlineStr"/>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GB00BBHXD542</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GMR.L</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PSDMF</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>GAMING REALMS PLC LS-,001</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45796.31262436343</v>
+      </c>
+      <c r="G31" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0.84089</v>
+      </c>
+      <c r="J31" t="n">
+        <v>55.06070948637753</v>
+      </c>
+      <c r="K31" t="n">
+        <v>24</v>
+      </c>
+      <c r="L31" t="n">
+        <v>11</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>45819.895481875</v>
+      </c>
+      <c r="N31" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0.84767</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>54.50234171316668</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1108.8</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1308.056201116</v>
+      </c>
+      <c r="T31" t="n">
+        <v>52.53984361009968</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.002159827213822796</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.01014094766339679</v>
+      </c>
+      <c r="W31" t="n">
+        <v>6.334</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PLMURPL00190</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MUR.WA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MURAPOL S.A.        ZY 40</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45800.80877047453</v>
+      </c>
+      <c r="G32" t="n">
+        <v>39.45</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>4.25708</v>
+      </c>
+      <c r="J32" t="n">
+        <v>9.266915350427993</v>
+      </c>
+      <c r="K32" t="n">
+        <v>161</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10.667</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>45819.895481875</v>
+      </c>
+      <c r="N32" t="n">
+        <v>40.85</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>4.2506</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.610407942408131</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6576.85</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1547.275678727709</v>
+      </c>
+      <c r="T32" t="n">
+        <v>8.866182016533278</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.03548795944233207</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.03706655116519153</v>
+      </c>
+      <c r="W32" t="n">
+        <v>-2.996</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>10.4753701879354</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DE0005492938</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MZX.DE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MASTERFLEX O.N.</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45803.37602041667</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>118</v>
+      </c>
+      <c r="L33" t="n">
+        <v>12</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>45819.895481875</v>
+      </c>
+      <c r="N33" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1410.1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1410.1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>11.475</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.08144796380090491</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.08144796380090491</v>
+      </c>
+      <c r="W33" t="n">
+        <v>-2.996</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>26.54999999999996</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GRS497003012</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PREMIA.AT</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>PREMIA REAL ESTATE EO 0,5</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45807.56954454861</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1075</v>
+      </c>
+      <c r="L34" t="n">
+        <v>10.667</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>45819.895481875</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1440.5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1440.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.2222</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.02290076335877855</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.02290076335877855</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-2.996</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>8.062500000000007</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AU000000ALK9</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ALK.AX</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ALKEF</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ALKANE RESOURCES LTD.</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>45819.31244493055</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1.75234</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.4251458050378351</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3521</v>
+      </c>
+      <c r="L35" t="n">
+        <v>10</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>45819.895481875</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>1.76592</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.4218764156926701</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2623.145</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1485.426859653892</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.3826312245340516</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>-0.007690042584035384</v>
+      </c>
+      <c r="W35" t="n">
+        <v>-2.996</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3665,6 +3665,182 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PTSEM0AM0004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SEM.LS</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SEMAPA SGPS NAM.     O.N.</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45820.80911407331</v>
+      </c>
+      <c r="G36" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="K36" t="n">
+        <v>92</v>
+      </c>
+      <c r="L36" t="n">
+        <v>9</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>45820.80911407331</v>
+      </c>
+      <c r="N36" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1488.56</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1488.56</v>
+      </c>
+      <c r="T36" t="n">
+        <v>14.562</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>9</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-2.877879971081508</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>IT0000076536</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SGF.MI</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SOGEFI SPA        EO 0,52</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>45820.80911407331</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.165</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.165</v>
+      </c>
+      <c r="K37" t="n">
+        <v>691</v>
+      </c>
+      <c r="L37" t="n">
+        <v>9</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>45820.80911407331</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.165</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.165</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1496.015</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1496.015</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.9485</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>9</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-2.877879971081508</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z37" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45820.80911407331</v>
+        <v>45820.80911407407</v>
       </c>
       <c r="G36" t="n">
         <v>16.18</v>
@@ -3711,7 +3711,7 @@
         <v>9</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>45820.80911407331</v>
+        <v>45820.80911407407</v>
       </c>
       <c r="N36" t="n">
         <v>16.18</v>
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45820.80911407331</v>
+        <v>45820.80911407407</v>
       </c>
       <c r="G37" t="n">
         <v>2.165</v>
@@ -3799,7 +3799,7 @@
         <v>9</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>45820.80911407331</v>
+        <v>45820.80911407407</v>
       </c>
       <c r="N37" t="n">
         <v>2.165</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3841,6 +3841,274 @@
       </c>
       <c r="Z37" t="inlineStr"/>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GB00BJVWTM27</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GMS.L</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>GULF MARINE SVCS  LS -,02</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>45821.31227019492</v>
+      </c>
+      <c r="G38" t="n">
+        <v>20.5536</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0.8516899999999999</v>
+      </c>
+      <c r="J38" t="n">
+        <v>24.13272434806091</v>
+      </c>
+      <c r="K38" t="n">
+        <v>62</v>
+      </c>
+      <c r="L38" t="n">
+        <v>10</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>45821.31227019492</v>
+      </c>
+      <c r="N38" t="n">
+        <v>20.5536</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0.8516899999999999</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>24.13272434806091</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1274.3232</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1496.228909579777</v>
+      </c>
+      <c r="T38" t="n">
+        <v>21.71945191325482</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>10</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-2.877879971081508</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GB0000280353</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ALU.L</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ALUMASC GRP PLC  LS -,125</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>45821.31227019492</v>
+      </c>
+      <c r="G39" t="n">
+        <v>374</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0.8516899999999999</v>
+      </c>
+      <c r="J39" t="n">
+        <v>439.1269123742207</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>10</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>45821.31227019492</v>
+      </c>
+      <c r="N39" t="n">
+        <v>374</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8516899999999999</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>439.1269123742207</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1122</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1317.380737122662</v>
+      </c>
+      <c r="T39" t="n">
+        <v>395.2142211367986</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>10</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-2.877879971081508</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CNE100000TW9</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0956.HK</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CSGEF</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>CN.SUNTIEN GR.ENRGY H YC1</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>45821.31227019492</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>9.06246</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.4998642752630081</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2884</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>45821.31227019492</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>9.06246</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.4998642752630081</v>
+      </c>
+      <c r="R40" t="n">
+        <v>13064.52</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1441.608569858515</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.4498778477367073</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>9</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-2.877879971081508</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z40" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45821.31227019492</v>
+        <v>45821.31227019676</v>
       </c>
       <c r="G38" t="n">
         <v>20.5536</v>
@@ -3887,7 +3887,7 @@
         <v>10</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>45821.31227019492</v>
+        <v>45821.31227019676</v>
       </c>
       <c r="N38" t="n">
         <v>20.5536</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45821.31227019492</v>
+        <v>45821.31227019676</v>
       </c>
       <c r="G39" t="n">
         <v>374</v>
@@ -3975,7 +3975,7 @@
         <v>10</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>45821.31227019492</v>
+        <v>45821.31227019676</v>
       </c>
       <c r="N39" t="n">
         <v>374</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45821.31227019492</v>
+        <v>45821.31227019676</v>
       </c>
       <c r="G40" t="n">
         <v>4.53</v>
@@ -4067,7 +4067,7 @@
         <v>9</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>45821.31227019492</v>
+        <v>45821.31227019676</v>
       </c>
       <c r="N40" t="n">
         <v>4.53</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4109,6 +4109,188 @@
       </c>
       <c r="Z40" t="inlineStr"/>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CNE100000TW9</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0956.HK</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CSGEF</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>CN.SUNTIEN GR.ENRGY H YC1</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>45821.31227019676</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>9.06246</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4998642752630081</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2884</v>
+      </c>
+      <c r="L41" t="n">
+        <v>9</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>45824.31403526916</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>9.09154</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5015651913757184</v>
+      </c>
+      <c r="R41" t="n">
+        <v>13151.04</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1446.514011927572</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.4538250972482351</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.006622516556291203</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.003402755901720234</v>
+      </c>
+      <c r="W41" t="n">
+        <v>8</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-2.877879971081508</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DE0005492938</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MZX.DE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MASTERFLEX O.N.</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>45824.31403526916</v>
+      </c>
+      <c r="G42" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K42" t="n">
+        <v>126</v>
+      </c>
+      <c r="L42" t="n">
+        <v>12</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>45824.31403526916</v>
+      </c>
+      <c r="N42" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1430.1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1430.1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>10.215</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>12</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-1.651519453817355</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z42" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -4159,7 +4159,7 @@
         <v>9</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>45824.31403526916</v>
+        <v>45824.3140352662</v>
       </c>
       <c r="N41" t="n">
         <v>4.56</v>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45824.31403526916</v>
+        <v>45824.3140352662</v>
       </c>
       <c r="G42" t="n">
         <v>11.35</v>
@@ -4249,7 +4249,7 @@
         <v>12</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>45824.31403526916</v>
+        <v>45824.3140352662</v>
       </c>
       <c r="N42" t="n">
         <v>11.35</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4291,6 +4291,548 @@
       </c>
       <c r="Z42" t="inlineStr"/>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PAP310761054</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>COPA HOLDINGS CL.A O.N.</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>45819.31244493055</v>
+      </c>
+      <c r="G43" t="n">
+        <v>107.42</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1.1416829</v>
+      </c>
+      <c r="J43" t="n">
+        <v>94.0891730970132</v>
+      </c>
+      <c r="K43" t="n">
+        <v>15</v>
+      </c>
+      <c r="L43" t="n">
+        <v>10</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>45825.31301621627</v>
+      </c>
+      <c r="N43" t="n">
+        <v>105.73</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>1.1559356</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>91.46703328455322</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1585.95</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1372.005499268298</v>
+      </c>
+      <c r="T43" t="n">
+        <v>84.68025578731188</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-0.01573263824241289</v>
+      </c>
+      <c r="V43" t="n">
+        <v>-0.02786866677801869</v>
+      </c>
+      <c r="W43" t="n">
+        <v>-2.996</v>
+      </c>
+      <c r="X43" t="n">
+        <v>-1.651519453817355</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>GB00BJVWTM27</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>GMS.L</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>GULF MARINE SVCS  LS -,02</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>45821.31227019676</v>
+      </c>
+      <c r="G44" t="n">
+        <v>20.5536</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0.8516899999999999</v>
+      </c>
+      <c r="J44" t="n">
+        <v>24.13272434806091</v>
+      </c>
+      <c r="K44" t="n">
+        <v>62</v>
+      </c>
+      <c r="L44" t="n">
+        <v>10</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>45825.31301621627</v>
+      </c>
+      <c r="N44" t="n">
+        <v>19.925</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.85203</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>23.38532680774151</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1235.35</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1449.890262079974</v>
+      </c>
+      <c r="T44" t="n">
+        <v>21.71945191325482</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-0.03058345010119878</v>
+      </c>
+      <c r="V44" t="n">
+        <v>-0.03097029284965314</v>
+      </c>
+      <c r="W44" t="n">
+        <v>6.667</v>
+      </c>
+      <c r="X44" t="n">
+        <v>-1.651519453817355</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>GB0000280353</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ALU.L</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ALUMASC GRP PLC  LS -,125</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>45821.31227019676</v>
+      </c>
+      <c r="G45" t="n">
+        <v>374</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8516899999999999</v>
+      </c>
+      <c r="J45" t="n">
+        <v>439.1269123742207</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>10</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>45825.31301621627</v>
+      </c>
+      <c r="N45" t="n">
+        <v>370.33</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.85203</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>434.6443200356795</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1110.99</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1303.932960107039</v>
+      </c>
+      <c r="T45" t="n">
+        <v>402.1542296747489</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-0.009812834224598999</v>
+      </c>
+      <c r="V45" t="n">
+        <v>-0.01020796542463132</v>
+      </c>
+      <c r="W45" t="n">
+        <v>-2.996</v>
+      </c>
+      <c r="X45" t="n">
+        <v>-1.651519453817355</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>IT0001268561</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BEC.MI</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>B+C SPEAKERS S.P.A.</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>45825.31301621627</v>
+      </c>
+      <c r="G46" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="K46" t="n">
+        <v>90</v>
+      </c>
+      <c r="L46" t="n">
+        <v>11</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>45825.31301621627</v>
+      </c>
+      <c r="N46" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1489.5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1489.5</v>
+      </c>
+      <c r="T46" t="n">
+        <v>14.895</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>11</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-26.43114987939881</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MHY271836006</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GSL</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GSL</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>GLOBAL SHIP LEA. A DL-,01</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>45825.31301621627</v>
+      </c>
+      <c r="G47" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1.1559356</v>
+      </c>
+      <c r="J47" t="n">
+        <v>22.60506554171357</v>
+      </c>
+      <c r="K47" t="n">
+        <v>66</v>
+      </c>
+      <c r="L47" t="n">
+        <v>10</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>45825.31301621627</v>
+      </c>
+      <c r="N47" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>1.1559356</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>22.60506554171357</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1724.58</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1491.934325753095</v>
+      </c>
+      <c r="T47" t="n">
+        <v>20.34455898754221</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>10</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-26.43114987939881</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>IT0005472730</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>AGP.MI</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ALTEA GREEN POWER S.P.A.</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>45825.31301621627</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="K48" t="n">
+        <v>141</v>
+      </c>
+      <c r="L48" t="n">
+        <v>10</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>45825.31301621627</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1135.05</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1135.05</v>
+      </c>
+      <c r="T48" t="n">
+        <v>7.245000000000001</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>10</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-26.43114987939881</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z48" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -4341,7 +4341,7 @@
         <v>10</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>45825.31301621627</v>
+        <v>45825.31301621528</v>
       </c>
       <c r="N43" t="n">
         <v>105.73</v>
@@ -4431,7 +4431,7 @@
         <v>10</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>45825.31301621627</v>
+        <v>45825.31301621528</v>
       </c>
       <c r="N44" t="n">
         <v>19.925</v>
@@ -4521,7 +4521,7 @@
         <v>10</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>45825.31301621627</v>
+        <v>45825.31301621528</v>
       </c>
       <c r="N45" t="n">
         <v>370.33</v>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45825.31301621627</v>
+        <v>45825.31301621528</v>
       </c>
       <c r="G46" t="n">
         <v>16.55</v>
@@ -4611,7 +4611,7 @@
         <v>11</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>45825.31301621627</v>
+        <v>45825.31301621528</v>
       </c>
       <c r="N46" t="n">
         <v>16.55</v>
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45825.31301621627</v>
+        <v>45825.31301621528</v>
       </c>
       <c r="G47" t="n">
         <v>26.13</v>
@@ -4703,7 +4703,7 @@
         <v>10</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>45825.31301621627</v>
+        <v>45825.31301621528</v>
       </c>
       <c r="N47" t="n">
         <v>26.13</v>
@@ -4768,7 +4768,7 @@
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45825.31301621627</v>
+        <v>45825.31301621528</v>
       </c>
       <c r="G48" t="n">
         <v>8.050000000000001</v>
@@ -4791,7 +4791,7 @@
         <v>10</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>45825.31301621627</v>
+        <v>45825.31301621528</v>
       </c>
       <c r="N48" t="n">
         <v>8.050000000000001</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:AD55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +568,26 @@
           <t>taxes_paid</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>mean_top_buy</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>score_tot_buy</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>mean_top</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>score_tot</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -660,6 +680,10 @@
         <v>3</v>
       </c>
       <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -748,6 +772,10 @@
         <v>3</v>
       </c>
       <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -840,6 +868,10 @@
         <v>3</v>
       </c>
       <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -928,6 +960,10 @@
         <v>3</v>
       </c>
       <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1016,6 +1052,10 @@
         <v>3</v>
       </c>
       <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1108,6 +1148,10 @@
         <v>3</v>
       </c>
       <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1196,6 +1240,10 @@
         <v>3</v>
       </c>
       <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1290,6 +1338,10 @@
       <c r="Z9" t="n">
         <v>0</v>
       </c>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1382,6 +1434,10 @@
         <v>3</v>
       </c>
       <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1476,6 +1532,10 @@
       <c r="Z11" t="n">
         <v>0</v>
       </c>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1568,6 +1628,10 @@
         <v>3</v>
       </c>
       <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1658,6 +1722,10 @@
       <c r="Z13" t="n">
         <v>0</v>
       </c>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1750,6 +1818,10 @@
         <v>3</v>
       </c>
       <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1840,6 +1912,10 @@
       <c r="Z15" t="n">
         <v>0</v>
       </c>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1928,6 +2004,10 @@
         <v>3</v>
       </c>
       <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2022,6 +2102,10 @@
       <c r="Z17" t="n">
         <v>0</v>
       </c>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2110,6 +2194,10 @@
         <v>3</v>
       </c>
       <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2200,6 +2288,10 @@
       <c r="Z19" t="n">
         <v>0</v>
       </c>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2288,6 +2380,10 @@
         <v>3</v>
       </c>
       <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2378,6 +2474,10 @@
       <c r="Z21" t="n">
         <v>0</v>
       </c>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2470,6 +2570,10 @@
         <v>3</v>
       </c>
       <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2564,6 +2668,10 @@
       <c r="Z23" t="n">
         <v>0</v>
       </c>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2652,6 +2760,10 @@
         <v>3</v>
       </c>
       <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2742,6 +2854,10 @@
       <c r="Z25" t="n">
         <v>0</v>
       </c>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2836,6 +2952,10 @@
       <c r="Z26" t="n">
         <v>0</v>
       </c>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2930,6 +3050,10 @@
       <c r="Z27" t="n">
         <v>43.1509483091458</v>
       </c>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3022,6 +3146,10 @@
         <v>3</v>
       </c>
       <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3114,6 +3242,10 @@
         <v>3</v>
       </c>
       <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3206,6 +3338,10 @@
         <v>3</v>
       </c>
       <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3300,6 +3436,10 @@
       <c r="Z31" t="n">
         <v>0</v>
       </c>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3390,6 +3530,10 @@
       <c r="Z32" t="n">
         <v>10.4753701879354</v>
       </c>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3480,6 +3624,10 @@
       <c r="Z33" t="n">
         <v>26.54999999999996</v>
       </c>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3570,6 +3718,10 @@
       <c r="Z34" t="n">
         <v>8.062500000000007</v>
       </c>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3664,6 +3816,10 @@
       <c r="Z35" t="n">
         <v>0</v>
       </c>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3752,6 +3908,10 @@
         <v>3</v>
       </c>
       <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3840,6 +4000,10 @@
         <v>3</v>
       </c>
       <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3928,6 +4092,10 @@
         <v>3</v>
       </c>
       <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4016,6 +4184,10 @@
         <v>3</v>
       </c>
       <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4108,6 +4280,10 @@
         <v>3</v>
       </c>
       <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4202,6 +4378,10 @@
       <c r="Z41" t="n">
         <v>0</v>
       </c>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4290,6 +4470,10 @@
         <v>3</v>
       </c>
       <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4384,6 +4568,10 @@
       <c r="Z43" t="n">
         <v>0</v>
       </c>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4474,6 +4662,10 @@
       <c r="Z44" t="n">
         <v>0</v>
       </c>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4564,6 +4756,10 @@
       <c r="Z45" t="n">
         <v>0</v>
       </c>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4652,6 +4848,10 @@
         <v>3</v>
       </c>
       <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4744,6 +4944,10 @@
         <v>3</v>
       </c>
       <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4832,6 +5036,722 @@
         <v>3</v>
       </c>
       <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>US4132163001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>HMY</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>HMY</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>HARMONY GD MNG ADRRC,-50</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>45827.86588488238</v>
+      </c>
+      <c r="G49" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1.1502185</v>
+      </c>
+      <c r="J49" t="n">
+        <v>12.50197245132121</v>
+      </c>
+      <c r="K49" t="n">
+        <v>119</v>
+      </c>
+      <c r="L49" t="n">
+        <v>11</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>45827.86588488238</v>
+      </c>
+      <c r="N49" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>1.1502185</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>12.50197245132121</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1711.22</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1487.734721707224</v>
+      </c>
+      <c r="T49" t="n">
+        <v>11.25177520618909</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>11</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="n">
+        <v>0.5338771939277649</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>13.11649942398071</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.5338771939277649</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>13.11649942398071</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CNE1000001H3</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>3330.HK</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LGBOF</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>LINGBAO GOLD GR. H YC-,20</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>45827.86588488238</v>
+      </c>
+      <c r="G50" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>9.025169999999999</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.104688332740547</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1355</v>
+      </c>
+      <c r="L50" t="n">
+        <v>9.334</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>45827.86588488238</v>
+      </c>
+      <c r="N50" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>9.025169999999999</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.104688332740547</v>
+      </c>
+      <c r="R50" t="n">
+        <v>13509.35</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1496.852690863441</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.9942194994664921</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>9.334</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="n">
+        <v>0.6391036510467529</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>12.99170721435547</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.6391036510467529</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>12.99170721435547</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DE000A0XYG76</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DR0.DE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>DT.ROHSTOFF AG NA O.N.</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>45827.86588488238</v>
+      </c>
+      <c r="G51" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="K51" t="n">
+        <v>39</v>
+      </c>
+      <c r="L51" t="n">
+        <v>11</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>45827.86588488238</v>
+      </c>
+      <c r="N51" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1470.3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1470.3</v>
+      </c>
+      <c r="T51" t="n">
+        <v>33.93000000000001</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>11</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="n">
+        <v>0.4329348504543304</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>12.02781891822815</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.4329348504543304</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>12.02781891822815</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>GB00BJVWTM27</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>GMS.L</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>GULF MARINE SVCS  LS -,02</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>45827.86588488238</v>
+      </c>
+      <c r="G52" t="n">
+        <v>20</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0.85367</v>
+      </c>
+      <c r="J52" t="n">
+        <v>23.42825682055127</v>
+      </c>
+      <c r="K52" t="n">
+        <v>63</v>
+      </c>
+      <c r="L52" t="n">
+        <v>10</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>45827.86588488238</v>
+      </c>
+      <c r="N52" t="n">
+        <v>20</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.85367</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>23.42825682055127</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1260</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1475.98017969473</v>
+      </c>
+      <c r="T52" t="n">
+        <v>21.08543113849614</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>10</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="n">
+        <v>0.5150970816612244</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>11.93871164321899</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.5150970816612244</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>11.93871164321899</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>GB0000280353</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ALU.L</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ALUMASC GRP PLC  LS -,125</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>45827.86588488238</v>
+      </c>
+      <c r="G53" t="n">
+        <v>367.666</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0.85367</v>
+      </c>
+      <c r="J53" t="n">
+        <v>430.6886736092401</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3</v>
+      </c>
+      <c r="L53" t="n">
+        <v>10</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>45827.86588488238</v>
+      </c>
+      <c r="N53" t="n">
+        <v>367.666</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.85367</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>430.6886736092401</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1102.998</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1292.06602082772</v>
+      </c>
+      <c r="T53" t="n">
+        <v>387.6198062483161</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>10</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="n">
+        <v>0.4649416506290436</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>11.58161377906799</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.4649416506290436</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>11.58161377906799</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AU000000ALK9</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ALK.AX</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ALKEF</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ALKANE RESOURCES LTD.</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>45827.86588488238</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1.77457</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4085496768231177</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3664</v>
+      </c>
+      <c r="L54" t="n">
+        <v>9.667</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>45827.86588488238</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>1.77457</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.4085496768231177</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2656.4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1496.926015879903</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.3676947091408059</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>9.667</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="n">
+        <v>0.5076211094856262</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>11.50223774147034</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.5076211094856262</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>11.50223774147034</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>NO0012851874</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DOFG.OL</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>DOF GROUP ASA  NK 2,50</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>45827.86588488238</v>
+      </c>
+      <c r="G55" t="n">
+        <v>90.45</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>11.53806</v>
+      </c>
+      <c r="J55" t="n">
+        <v>7.839272806693673</v>
+      </c>
+      <c r="K55" t="n">
+        <v>160</v>
+      </c>
+      <c r="L55" t="n">
+        <v>9</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>45827.86588488238</v>
+      </c>
+      <c r="N55" t="n">
+        <v>90.45</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>11.53806</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>7.839272806693673</v>
+      </c>
+      <c r="R55" t="n">
+        <v>14472</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1254.283649070988</v>
+      </c>
+      <c r="T55" t="n">
+        <v>7.055345526024306</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>9</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="n">
+        <v>0.5388140678405762</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>11.4948091506958</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.5388140678405762</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>11.4948091506958</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>45827.86588488238</v>
+        <v>45827.86588488426</v>
       </c>
       <c r="G49" t="n">
         <v>14.38</v>
@@ -5091,7 +5091,7 @@
         <v>11</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>45827.86588488238</v>
+        <v>45827.86588488426</v>
       </c>
       <c r="N49" t="n">
         <v>14.38</v>
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>45827.86588488238</v>
+        <v>45827.86588488426</v>
       </c>
       <c r="G50" t="n">
         <v>9.970000000000001</v>
@@ -5195,7 +5195,7 @@
         <v>9.334</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>45827.86588488238</v>
+        <v>45827.86588488426</v>
       </c>
       <c r="N50" t="n">
         <v>9.970000000000001</v>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45827.86588488238</v>
+        <v>45827.86588488426</v>
       </c>
       <c r="G51" t="n">
         <v>37.7</v>
@@ -5295,7 +5295,7 @@
         <v>11</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>45827.86588488238</v>
+        <v>45827.86588488426</v>
       </c>
       <c r="N51" t="n">
         <v>37.7</v>
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="F52" s="2" t="n">
-        <v>45827.86588488238</v>
+        <v>45827.86588488426</v>
       </c>
       <c r="G52" t="n">
         <v>20</v>
@@ -5395,7 +5395,7 @@
         <v>10</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>45827.86588488238</v>
+        <v>45827.86588488426</v>
       </c>
       <c r="N52" t="n">
         <v>20</v>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45827.86588488238</v>
+        <v>45827.86588488426</v>
       </c>
       <c r="G53" t="n">
         <v>367.666</v>
@@ -5495,7 +5495,7 @@
         <v>10</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>45827.86588488238</v>
+        <v>45827.86588488426</v>
       </c>
       <c r="N53" t="n">
         <v>367.666</v>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45827.86588488238</v>
+        <v>45827.86588488426</v>
       </c>
       <c r="G54" t="n">
         <v>0.725</v>
@@ -5599,7 +5599,7 @@
         <v>9.667</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>45827.86588488238</v>
+        <v>45827.86588488426</v>
       </c>
       <c r="N54" t="n">
         <v>0.725</v>
@@ -5676,7 +5676,7 @@
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45827.86588488238</v>
+        <v>45827.86588488426</v>
       </c>
       <c r="G55" t="n">
         <v>90.45</v>
@@ -5699,7 +5699,7 @@
         <v>9</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>45827.86588488238</v>
+        <v>45827.86588488426</v>
       </c>
       <c r="N55" t="n">
         <v>90.45</v>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD55"/>
+  <dimension ref="A1:AD61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5753,6 +5753,628 @@
         <v>11.4948091506958</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>US4132163001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>HMY</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>HMY</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>HARMONY GD MNG ADRRC,-50</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>45827.86588488426</v>
+      </c>
+      <c r="G56" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1.1502185</v>
+      </c>
+      <c r="J56" t="n">
+        <v>12.50197245132121</v>
+      </c>
+      <c r="K56" t="n">
+        <v>119</v>
+      </c>
+      <c r="L56" t="n">
+        <v>11</v>
+      </c>
+      <c r="M56" s="2" t="n">
+        <v>45828.31201895502</v>
+      </c>
+      <c r="N56" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>1.1522064</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>12.48040281671756</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1711.22</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1485.16793518939</v>
+      </c>
+      <c r="T56" t="n">
+        <v>11.25565718096491</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.001725298522903596</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-2.996</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.5338771939277649</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>13.11649942398071</v>
+      </c>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="n">
+        <v>-4.996</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CNE1000001H3</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3330.HK</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>LGBOF</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>LINGBAO GOLD GR. H YC-,20</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>45827.86588488426</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>9.025169999999999</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.104688332740547</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1355</v>
+      </c>
+      <c r="L57" t="n">
+        <v>9.334</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>45828.31201895502</v>
+      </c>
+      <c r="N57" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>9.04054</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.1083408734434</v>
+      </c>
+      <c r="R57" t="n">
+        <v>13577.1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1501.801883515808</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.994612928970471</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.005015045135406071</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.003306399275343264</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-2.996</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.5956015336330167</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.6391036510467529</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>12.99170721435547</v>
+      </c>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="n">
+        <v>-4.996</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>GB00BJVWTM27</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>GMS.L</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>GULF MARINE SVCS  LS -,02</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>45827.86588488426</v>
+      </c>
+      <c r="G58" t="n">
+        <v>20</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0.85367</v>
+      </c>
+      <c r="J58" t="n">
+        <v>23.42825682055127</v>
+      </c>
+      <c r="K58" t="n">
+        <v>63</v>
+      </c>
+      <c r="L58" t="n">
+        <v>10</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>45828.31201895502</v>
+      </c>
+      <c r="N58" t="n">
+        <v>20.3428</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>GBp</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.85449</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>23.80694917436132</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1281.5964</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1499.837797984763</v>
+      </c>
+      <c r="T58" t="n">
+        <v>21.09655188579733</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.01713999999999993</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.01616391508385129</v>
+      </c>
+      <c r="W58" t="n">
+        <v>8</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>5.964404572508269</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.5150970816612244</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>11.93871164321899</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.5477825403213501</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>10.43288230895996</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>GRS393503008</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MYTIL.AT</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>MYTHF</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>METLEN ENER.+MET. EO 0,97</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>45828.31201895502</v>
+      </c>
+      <c r="G59" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="K59" t="n">
+        <v>34</v>
+      </c>
+      <c r="L59" t="n">
+        <v>9</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>45828.31201895502</v>
+      </c>
+      <c r="N59" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1455.2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1455.2</v>
+      </c>
+      <c r="T59" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>9</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="n">
+        <v>0.6616257429122925</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>13.05655670166016</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.6616257429122925</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>13.05655670166016</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>KYG8187G1055</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1308.HK</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SITIF</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SITC INTL HLDG.REGS HD-10</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>45828.31201895502</v>
+      </c>
+      <c r="G60" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>9.04054</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.787444112851666</v>
+      </c>
+      <c r="K60" t="n">
+        <v>537</v>
+      </c>
+      <c r="L60" t="n">
+        <v>9.667</v>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>45828.31201895502</v>
+      </c>
+      <c r="N60" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>9.04054</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.787444112851666</v>
+      </c>
+      <c r="R60" t="n">
+        <v>13532.4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1496.857488601345</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.5086997015665</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>9.667</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="n">
+        <v>0.5739187598228455</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>12.54904908370972</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.5739187598228455</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>12.54904908370972</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SE0000407991</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SVED-B.ST</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SVBDF</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SVEDBERGS GROUP B SK 1,25</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>45828.31201895502</v>
+      </c>
+      <c r="G61" t="n">
+        <v>55</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>SEK</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>11.06708</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4.969693902998803</v>
+      </c>
+      <c r="K61" t="n">
+        <v>301</v>
+      </c>
+      <c r="L61" t="n">
+        <v>10</v>
+      </c>
+      <c r="M61" s="2" t="n">
+        <v>45828.31201895502</v>
+      </c>
+      <c r="N61" t="n">
+        <v>55</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>SEK</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>11.06708</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4.969693902998803</v>
+      </c>
+      <c r="R61" t="n">
+        <v>16555</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1495.87786480264</v>
+      </c>
+      <c r="T61" t="n">
+        <v>4.472724512698923</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>10</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="n">
+        <v>0.5279636979103088</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>12.30872821807861</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.5279636979103088</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>12.30872821807861</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -5803,7 +5803,7 @@
         <v>11</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>45828.31201895502</v>
+        <v>45828.31201895834</v>
       </c>
       <c r="N56" t="n">
         <v>14.38</v>
@@ -5907,7 +5907,7 @@
         <v>9.334</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>45828.31201895502</v>
+        <v>45828.31201895834</v>
       </c>
       <c r="N57" t="n">
         <v>10.02</v>
@@ -6007,7 +6007,7 @@
         <v>10</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>45828.31201895502</v>
+        <v>45828.31201895834</v>
       </c>
       <c r="N58" t="n">
         <v>20.3428</v>
@@ -6090,7 +6090,7 @@
         </is>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45828.31201895502</v>
+        <v>45828.31201895834</v>
       </c>
       <c r="G59" t="n">
         <v>42.8</v>
@@ -6113,7 +6113,7 @@
         <v>9</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>45828.31201895502</v>
+        <v>45828.31201895834</v>
       </c>
       <c r="N59" t="n">
         <v>42.8</v>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>45828.31201895502</v>
+        <v>45828.31201895834</v>
       </c>
       <c r="G60" t="n">
         <v>25.2</v>
@@ -6217,7 +6217,7 @@
         <v>9.667</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>45828.31201895502</v>
+        <v>45828.31201895834</v>
       </c>
       <c r="N60" t="n">
         <v>25.2</v>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>45828.31201895502</v>
+        <v>45828.31201895834</v>
       </c>
       <c r="G61" t="n">
         <v>55</v>
@@ -6321,7 +6321,7 @@
         <v>10</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>45828.31201895502</v>
+        <v>45828.31201895834</v>
       </c>
       <c r="N61" t="n">
         <v>55</v>
